--- a/Assets/Excels/Games/WMG/WMGAnswer.xlsx
+++ b/Assets/Excels/Games/WMG/WMGAnswer.xlsx
@@ -24,13 +24,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Answer1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Answer2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Answer5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,60 +373,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
